--- a/cta策略/result/螺纹/DMA_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/DMA_1d/绩效.xlsx
@@ -435,13 +435,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.1921615925272306</v>
+        <v>0.1211721560781513</v>
       </c>
       <c r="D2">
-        <v>0.5693031788817886</v>
+        <v>0.3751485905722273</v>
       </c>
       <c r="E2">
-        <v>0.6036224715856521</v>
+        <v>0.3787085661042208</v>
       </c>
       <c r="F2">
         <v>0.65</v>
@@ -455,13 +455,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.07931770371292135</v>
+        <v>0.05551679164405865</v>
       </c>
       <c r="D3">
-        <v>0.1465422880987155</v>
+        <v>0.07212096625139135</v>
       </c>
       <c r="E3">
-        <v>0.1382489718600797</v>
+        <v>0.0995039744365358</v>
       </c>
       <c r="F3">
         <v>0.5</v>
@@ -475,13 +475,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.07469711919486288</v>
+        <v>0.0573048047963185</v>
       </c>
       <c r="D4">
-        <v>0.1292264598681524</v>
+        <v>0.08082254866739676</v>
       </c>
       <c r="E4">
-        <v>0.1213665932267603</v>
+        <v>0.0985191115897078</v>
       </c>
       <c r="F4">
         <v>0.6</v>
@@ -495,13 +495,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.0341070204745928</v>
+        <v>0.02980046547054549</v>
       </c>
       <c r="D5">
-        <v>-0.02224339457150955</v>
+        <v>-0.04795501027975491</v>
       </c>
       <c r="E5">
-        <v>0.05454647660722552</v>
+        <v>0.04965703200530463</v>
       </c>
       <c r="F5">
         <v>0.55</v>
@@ -515,13 +515,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.3253693605717396</v>
+        <v>0.2077011967277922</v>
       </c>
       <c r="D6">
-        <v>1.100308260713711</v>
+        <v>0.7934447311541736</v>
       </c>
       <c r="E6">
-        <v>1.075690428764206</v>
+        <v>0.7044749439162906</v>
       </c>
       <c r="F6">
         <v>0.75</v>

--- a/cta策略/result/螺纹/DMA_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/DMA_1d/绩效.xlsx
@@ -435,13 +435,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.1211721560781513</v>
+        <v>0.1223715213751597</v>
       </c>
       <c r="D2">
-        <v>0.3751485905722273</v>
+        <v>0.3806949261509179</v>
       </c>
       <c r="E2">
-        <v>0.3787085661042208</v>
+        <v>0.3845210766452981</v>
       </c>
       <c r="F2">
         <v>0.65</v>
@@ -455,13 +455,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.05551679164405865</v>
+        <v>0.05643325611683148</v>
       </c>
       <c r="D3">
-        <v>0.07212096625139135</v>
+        <v>0.0763891957115171</v>
       </c>
       <c r="E3">
-        <v>0.0995039744365358</v>
+        <v>0.1013173073362262</v>
       </c>
       <c r="F3">
         <v>0.5</v>
@@ -475,13 +475,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.0573048047963185</v>
+        <v>0.05812806604774989</v>
       </c>
       <c r="D4">
-        <v>0.08082254866739676</v>
+        <v>0.08465159143469429</v>
       </c>
       <c r="E4">
-        <v>0.0985191115897078</v>
+        <v>0.1000727639536431</v>
       </c>
       <c r="F4">
         <v>0.6</v>
@@ -495,13 +495,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.02980046547054549</v>
+        <v>0.0305996716433321</v>
       </c>
       <c r="D5">
-        <v>-0.04795501027975491</v>
+        <v>-0.04419498722634334</v>
       </c>
       <c r="E5">
-        <v>0.04965703200530463</v>
+        <v>0.05106323504035868</v>
       </c>
       <c r="F5">
         <v>0.55</v>
@@ -515,13 +515,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.2077011967277922</v>
+        <v>0.2084478589678631</v>
       </c>
       <c r="D6">
-        <v>0.7934447311541736</v>
+        <v>0.7968603595479237</v>
       </c>
       <c r="E6">
-        <v>0.7044749439162906</v>
+        <v>0.7073594208538185</v>
       </c>
       <c r="F6">
         <v>0.75</v>
